--- a/7SegPortasLogicas.xlsx
+++ b/7SegPortasLogicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{152CD505-355E-49B7-9F87-5F00AADD3C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7FBBD900-25CD-4F4F-B036-4BC22EFEE313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="0" windowWidth="14115" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11955" yWindow="0" windowWidth="16950" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7 Segmentos Binário" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AND</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>XOR</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>XNOR</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,11 +566,11 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>IF(B7=1,A7,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -594,11 +600,11 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C15" si="0">IF(B8=1,A8,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -607,11 +613,11 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -620,11 +626,17 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -633,11 +645,18 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IF(G10=G11, 1, 0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -646,11 +665,11 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -659,11 +678,11 @@
         <v>64</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -673,11 +692,11 @@
         <v>128</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -686,42 +705,42 @@
         <v>256</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>DEC2BIN(C16)</f>
-        <v>111111111</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4">
         <f>SUM(C7:C15)</f>
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="D16" t="str">
         <f>MID(C16,1,1)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
         <f>MID(C16,2,1)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F16" t="str">
         <f>MID(C16,3,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="D18" t="str">
         <f>D16</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "0245689")), 1, ""))</f>
@@ -737,7 +756,7 @@
       </c>
       <c r="H18" t="str">
         <f>E16</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "0245689")), 1, ""))</f>
@@ -747,13 +766,13 @@
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "02356789")), 1, ""))</f>
         <v/>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "0123456789")), 1, ""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L18" t="str">
         <f>F16</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M18" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "0245689")), 1, ""))</f>
@@ -763,49 +782,49 @@
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "02356789")), 1, ""))</f>
         <v/>
       </c>
-      <c r="O18">
+      <c r="O18" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "0123456789")), 1, ""))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="E19">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "045689")), 1, ""))</f>
         <v>1</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "01234789")), 1, ""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "045689")), 1, ""))</f>
         <v/>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "01234789")), 1, ""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "045689")), 1, ""))</f>
         <v/>
       </c>
-      <c r="O19">
+      <c r="O19" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "01234789")), 1, ""))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "0245689")), 1, ""))</f>
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "2345689")), 1, ""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="G20">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "0123456789")), 1, ""))</f>
@@ -820,9 +839,9 @@
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "2345689")), 1, ""))</f>
         <v/>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "0123456789")), 1, ""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" t="str">
@@ -833,15 +852,15 @@
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "2345689")), 1, ""))</f>
         <v/>
       </c>
-      <c r="O20">
+      <c r="O20" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "0123456789")), 1, ""))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E21">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "0268")), 1, ""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G21">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "013456789")), 1, ""))</f>
@@ -851,20 +870,20 @@
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "0268")), 1, ""))</f>
         <v/>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "013456789")), 1, ""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M21" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "0268")), 1, ""))</f>
         <v/>
       </c>
-      <c r="O21">
+      <c r="O21" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "013456789")), 1, ""))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22">
         <f>IF(D18="", "", IF(ISNUMBER(FIND(D18, "025689")), 1, ""))</f>
@@ -887,9 +906,9 @@
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "0235689")), 1, ""))</f>
         <v/>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>IF(H18="", "", IF(ISNUMBER(FIND(H18, "0123456789")), 1, ""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" t="str">
@@ -900,14 +919,86 @@
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "0235689")), 1, ""))</f>
         <v/>
       </c>
-      <c r="O22">
+      <c r="O22" t="str">
         <f>IF(L18="", "", IF(ISNUMBER(FIND(L18, "0123456789")), 1, ""))</f>
-        <v>1</v>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0245689abcdefghjklmnopqrstuvwxyz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "02356789abcdefgjklmnopqrstuvwxyz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789abcefghijkmnopqrstuvwxyz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "045689abcdefghklmnopqrsuvwxy")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "01234789abdh")), 1, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0245689abcdefgh")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "2345689abefh")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789adfghi")), 1, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0268abcdefgh")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "2345689")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "013456789abdghi")), 1, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "025689abcdefgh")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0235689bcdeg")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789abceghi")), 1, ""))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6:F8 B1:D5">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -917,7 +1008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:G22">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -927,7 +1018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:K22">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -937,7 +1028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:O22">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -947,7 +1038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -955,7 +1046,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -964,6 +1055,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:D29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/7SegPortasLogicas.xlsx
+++ b/7SegPortasLogicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7FBBD900-25CD-4F4F-B036-4BC22EFEE313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{32EA32F8-C20B-43AE-B7CA-6E31717936D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11955" yWindow="0" windowWidth="16950" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16395" yWindow="0" windowWidth="11745" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7 Segmentos Binário" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>XOR</t>
   </si>
   <si>
-    <t>j</t>
+    <t>XNOR</t>
   </si>
   <si>
-    <t>XNOR</t>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -924,21 +924,32 @@
         <v/>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0245689abcdefghjklmnopqrstuvwxyz")), 1, ""))</f>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0245689abcdefghklmnopqrstuvwxyz")), 1, ""))</f>
         <v>1</v>
       </c>
       <c r="C25">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "02356789abcdefgjklmnopqrstuvwxyz")), 1, ""))</f>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "02356789abcdefgopqrstz")), 1, ""))</f>
         <v>1</v>
       </c>
       <c r="D25">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789abcefghijkmnopqrstuvwxyz")), 1, ""))</f>
-        <v>1</v>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789abcefghijkopqrstuvxyz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "g")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "mnw")), 1, ""))</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -947,57 +958,103 @@
         <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "045689abcdefghklmnopqrsuvwxy")), 1, ""))</f>
         <v/>
       </c>
-      <c r="D26" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "01234789abdh")), 1, ""))</f>
+      <c r="C26" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "mnt")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="D26">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "01234789abdhjkopqruvxyz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "m")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "mnw")), 1, ""))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0245689abcdefgh")), 1, ""))</f>
-        <v/>
-      </c>
-      <c r="C27" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "2345689abefh")), 1, ""))</f>
-        <v/>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0245689abcdefghjklmnopqrsuvw")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="C27">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "2345689abefhkmprstxyz")), 1, ""))</f>
+        <v>1</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789adfghi")), 1, ""))</f>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789adfghijmnopqsuvw")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "gm")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "mnw")), 1, ""))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0268abcdefgh")), 1, ""))</f>
-        <v/>
+      <c r="B28">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0268abcdefghjklmnopqruvwxz")), 1, ""))</f>
+        <v>1</v>
       </c>
       <c r="C28" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "2345689")), 1, ""))</f>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "2345689qtwy")), 1, ""))</f>
         <v/>
       </c>
       <c r="D28" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "013456789abdghi")), 1, ""))</f>
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "013456789abdhijkmoqrsuvx")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "gwn")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "mnw")), 1, ""))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "025689abcdefgh")), 1, ""))</f>
-        <v/>
-      </c>
-      <c r="C29" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0235689bcdeg")), 1, ""))</f>
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789abceghi")), 1, ""))</f>
+      <c r="B29">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "025689abcdefghjklmnoprsuwxz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0235689bcdegjloqstuvyz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "0123456789abceghijkloqrsuxz")), 1, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "g")), 1, ""))</f>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(A25="", "", IF(ISNUMBER(FIND(A25, "mnw")), 1, ""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6:F8 B1:D5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:G22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1007,18 +1064,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:G22">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I18:K22">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1028,7 +1075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:O22">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1038,7 +1085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1046,7 +1093,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1056,7 +1103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1064,7 +1111,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1074,7 +1121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:D29">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1083,6 +1130,36 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E25:F25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color theme="0"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color theme="0"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>